--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inha</t>
+  </si>
+  <si>
+    <t>Tgfbr3</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Inha</t>
-  </si>
-  <si>
-    <t>Tgfbr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,10 +543,10 @@
         <v>1.171365</v>
       </c>
       <c r="I2">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N2">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O2">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P2">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q2">
-        <v>7.974877431625</v>
+        <v>16.43806127019333</v>
       </c>
       <c r="R2">
-        <v>71.773896884625</v>
+        <v>147.94255143174</v>
       </c>
       <c r="S2">
-        <v>0.1731072457008653</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="T2">
-        <v>0.1731072457008653</v>
+        <v>0.3315552933456474</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>1.171365</v>
       </c>
       <c r="I3">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>171.503098</v>
       </c>
       <c r="O3">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P3">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q3">
         <v>22.32141404319667</v>
@@ -635,10 +635,10 @@
         <v>200.89272638877</v>
       </c>
       <c r="S3">
-        <v>0.4845213657884449</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="T3">
-        <v>0.4845213657884449</v>
+        <v>0.4502223747274475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,10 +667,10 @@
         <v>1.171365</v>
       </c>
       <c r="I4">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N4">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O4">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P4">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q4">
-        <v>8.801389712288334</v>
+        <v>10.775100431485</v>
       </c>
       <c r="R4">
-        <v>79.21250741059501</v>
+        <v>96.97590388336501</v>
       </c>
       <c r="S4">
-        <v>0.1910479934641092</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="T4">
-        <v>0.1910479934641091</v>
+        <v>0.2173335118824389</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,10 +729,10 @@
         <v>1.171365</v>
       </c>
       <c r="I5">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N5">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O5">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P5">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q5">
-        <v>0.04615360312333333</v>
+        <v>0.04406649099666667</v>
       </c>
       <c r="R5">
-        <v>0.41538242811</v>
+        <v>0.39659841897</v>
       </c>
       <c r="S5">
-        <v>0.001001836477657701</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="T5">
-        <v>0.001001836477657701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.06907766666666666</v>
-      </c>
-      <c r="H6">
-        <v>0.207233</v>
-      </c>
-      <c r="I6">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="J6">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>20.424575</v>
-      </c>
-      <c r="N6">
-        <v>61.273725</v>
-      </c>
-      <c r="O6">
-        <v>0.203732656096709</v>
-      </c>
-      <c r="P6">
-        <v>0.2037326560967089</v>
-      </c>
-      <c r="Q6">
-        <v>1.410881983658333</v>
-      </c>
-      <c r="R6">
-        <v>12.697937852925</v>
-      </c>
-      <c r="S6">
-        <v>0.03062541039584367</v>
-      </c>
-      <c r="T6">
-        <v>0.03062541039584367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.06907766666666666</v>
-      </c>
-      <c r="H7">
-        <v>0.207233</v>
-      </c>
-      <c r="I7">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="J7">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>57.16769933333334</v>
-      </c>
-      <c r="N7">
-        <v>171.503098</v>
-      </c>
-      <c r="O7">
-        <v>0.5702408607336045</v>
-      </c>
-      <c r="P7">
-        <v>0.5702408607336045</v>
-      </c>
-      <c r="Q7">
-        <v>3.949011278648222</v>
-      </c>
-      <c r="R7">
-        <v>35.54110150783401</v>
-      </c>
-      <c r="S7">
-        <v>0.08571949494515956</v>
-      </c>
-      <c r="T7">
-        <v>0.08571949494515956</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.06907766666666666</v>
-      </c>
-      <c r="H8">
-        <v>0.207233</v>
-      </c>
-      <c r="I8">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="J8">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>22.54136766666667</v>
-      </c>
-      <c r="N8">
-        <v>67.62410300000001</v>
-      </c>
-      <c r="O8">
-        <v>0.2248474059696456</v>
-      </c>
-      <c r="P8">
-        <v>0.2248474059696456</v>
-      </c>
-      <c r="Q8">
-        <v>1.557105081888778</v>
-      </c>
-      <c r="R8">
-        <v>14.013945736999</v>
-      </c>
-      <c r="S8">
-        <v>0.03379941250553648</v>
-      </c>
-      <c r="T8">
-        <v>0.03379941250553647</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.06907766666666666</v>
-      </c>
-      <c r="H9">
-        <v>0.207233</v>
-      </c>
-      <c r="I9">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="J9">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.1182046666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.354614</v>
-      </c>
-      <c r="O9">
-        <v>0.001179077200040937</v>
-      </c>
-      <c r="P9">
-        <v>0.001179077200040937</v>
-      </c>
-      <c r="Q9">
-        <v>0.008165302562444444</v>
-      </c>
-      <c r="R9">
-        <v>0.07348772306199999</v>
-      </c>
-      <c r="S9">
-        <v>0.0001772407223832353</v>
-      </c>
-      <c r="T9">
-        <v>0.0001772407223832353</v>
+        <v>0.0008888200444663087</v>
       </c>
     </row>
   </sheetData>
